--- a/reference/AllergyIntolerance.xlsx
+++ b/reference/AllergyIntolerance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FA1851-5025-8F46-8350-B55515D05664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CA8BD0-F184-954A-9554-CED2C66B9810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="500" windowWidth="30500" windowHeight="17040" xr2:uid="{57DAE481-D77A-E346-8D6C-DC53CAA72CC2}"/>
+    <workbookView xWindow="-6620" yWindow="500" windowWidth="38620" windowHeight="17040" xr2:uid="{57DAE481-D77A-E346-8D6C-DC53CAA72CC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="262">
   <si>
     <r>
       <t>要素</t>
@@ -256,9 +256,6 @@
     <t>"http://terminology.hl7.org/CodeSystem/allergyintolerance-verification"</t>
   </si>
   <si>
-    <t>"confirmed"</t>
-  </si>
-  <si>
     <r>
       <t>入力された臨床的状態に対する検証状況を示す。確からしさと考えられる。コードで記述する場合には</t>
     </r>
@@ -474,9 +471,6 @@
       </rPr>
       <t>　（その他のアレルギー）</t>
     </r>
-  </si>
-  <si>
-    <t>のいずれかを使用できる。</t>
   </si>
   <si>
     <t>patient</t>
@@ -2591,136 +2585,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <r>
-      <t>unconfirmed | confirmed | refuted | entered-in-error</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>未確認</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> | </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>確認済み</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> | </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>否定された</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> | </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>入力エラー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>　のいずれか（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>ValueSet http://hl7.org/fhir/ValueSet/allergyintolerance-verification</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>より選択することが必須）</t>
-    </r>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>JP_Core</t>
     <phoneticPr fontId="8"/>
   </si>
@@ -2921,194 +2785,10 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <r>
-      <t>active | inactive | resolved</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐ明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐ明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>アクティブ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> | </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐ明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>非アクティブ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> | </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐ明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>解決済み</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐ明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>のいずれか（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>ValueSet http://hl7.org/fhir/ValueSet/allergyintolerance-clinical</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐ明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>より選択することが必須）</t>
-    </r>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>コードで記述する場合にはsyetem値は固定値。</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>verificationStatus</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>コードだけでは記述できない情報がある場合や、コード化できない場合には本要素だけで記述してもよい。コードと併用してもよい。</t>
-    <rPh sb="7" eb="9">
-      <t xml:space="preserve">キジュツ </t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t xml:space="preserve">ジョウホウ </t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t xml:space="preserve">バアイ </t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t xml:space="preserve">カ </t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t xml:space="preserve">バアイ </t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t xml:space="preserve">ホン </t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t xml:space="preserve">ヨウソ </t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t xml:space="preserve">キジュツ </t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t xml:space="preserve">ヘイヨウ </t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>コードで記述する場合にはsystem値は固定値。</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <r>
-      <t>入力された臨床的状態に対する検証状況を示す。確からしさと考えられる。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">verificationStatus.text </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>のみで記述することもできる。clinicalStatusとの制約条件を参照のこと。</t>
-    </r>
-    <rPh sb="88" eb="90">
-      <t xml:space="preserve">セイヤク </t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t xml:space="preserve">ジョウケン </t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t xml:space="preserve">サンショウ </t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <r>
       <t>Active | Inactive | Resolved</t>
     </r>
@@ -3122,10 +2802,6 @@
       </rPr>
       <t>　のいずれかの文字列。</t>
     </r>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>Unconfirmed | Confirmed | Refuted | Entered in Error　のいずれかの文字列。</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
@@ -3167,90 +2843,6 @@
     </rPh>
     <rPh sb="190" eb="192">
       <t xml:space="preserve">イゾン </t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">特定された原因物質のカテゴリ。記述を可能な限り推奨する。コード表："http://hl7.org/fhir/allergy-intolerance-category"　から　food | medication | environment | biologic　（食物、医薬品、環境、バイオロジー物質）のいずれかを選択する。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>電子カルテ情報共有サービスでは、薬剤禁忌情報として本リソース種別を使用する場合には、必ず本要素は"medication"として存在しなければならず、criticality要素は"high"を設定しなければならない。これ以外の場合には、本リソースの情報はや薬剤禁忌以外のアレルギー情報として取り扱われる。</t>
-    </r>
-    <rPh sb="147" eb="149">
-      <t xml:space="preserve">ブッシツ </t>
-    </rPh>
-    <rPh sb="156" eb="158">
-      <t xml:space="preserve">センタク </t>
-    </rPh>
-    <rPh sb="178" eb="180">
-      <t xml:space="preserve">ヤクザイ </t>
-    </rPh>
-    <rPh sb="180" eb="182">
-      <t xml:space="preserve">キンキ </t>
-    </rPh>
-    <rPh sb="182" eb="184">
-      <t xml:space="preserve">ジョウホウ </t>
-    </rPh>
-    <rPh sb="187" eb="188">
-      <t xml:space="preserve">ホン </t>
-    </rPh>
-    <rPh sb="192" eb="194">
-      <t xml:space="preserve">シュベツ </t>
-    </rPh>
-    <rPh sb="195" eb="197">
-      <t xml:space="preserve">シヨウ </t>
-    </rPh>
-    <rPh sb="199" eb="201">
-      <t xml:space="preserve">バアイ </t>
-    </rPh>
-    <rPh sb="204" eb="205">
-      <t xml:space="preserve">カナラズ </t>
-    </rPh>
-    <rPh sb="206" eb="207">
-      <t xml:space="preserve">ホン </t>
-    </rPh>
-    <rPh sb="207" eb="209">
-      <t xml:space="preserve">ヨウソ </t>
-    </rPh>
-    <rPh sb="225" eb="227">
-      <t xml:space="preserve">ソンザイ </t>
-    </rPh>
-    <rPh sb="247" eb="249">
-      <t xml:space="preserve">ヨウソ </t>
-    </rPh>
-    <rPh sb="257" eb="259">
-      <t xml:space="preserve">セッテイ </t>
-    </rPh>
-    <rPh sb="274" eb="276">
-      <t xml:space="preserve">バアイ </t>
-    </rPh>
-    <rPh sb="279" eb="280">
-      <t xml:space="preserve">ホン </t>
-    </rPh>
-    <rPh sb="285" eb="287">
-      <t xml:space="preserve">ジョウホウ </t>
-    </rPh>
-    <rPh sb="291" eb="293">
-      <t xml:space="preserve">キンキ </t>
-    </rPh>
-    <rPh sb="293" eb="295">
-      <t xml:space="preserve">イガイ </t>
-    </rPh>
-    <rPh sb="301" eb="303">
-      <t xml:space="preserve">ジョウホウ </t>
-    </rPh>
-    <rPh sb="306" eb="307">
-      <t xml:space="preserve">トリアツカワレル </t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -3326,58 +2918,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <r>
-      <t>臨床的状態のステータス。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">clinicalStatus.text </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>のみで記述することもできる。verificationStatus要素のコード記述が存在しない、あるいはentered-in-error'以外の場合には、本要素は存在しなければならない。逆にverificationStatus要素が'entered-in-error'であれば、本要素は存在してはならない。</t>
-    </r>
-    <rPh sb="64" eb="66">
-      <t xml:space="preserve">ヨウソ </t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t xml:space="preserve">ソンザイ </t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t xml:space="preserve">バアイ </t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t xml:space="preserve">ソンザイ </t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t xml:space="preserve">キジュツ </t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t xml:space="preserve">イガイ </t>
-    </rPh>
-    <rPh sb="150" eb="151">
-      <t xml:space="preserve">ホン </t>
-    </rPh>
-    <rPh sb="151" eb="153">
-      <t xml:space="preserve">ヨウソ </t>
-    </rPh>
-    <rPh sb="154" eb="156">
-      <t xml:space="preserve">ソンザイ </t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>criticality</t>
     <phoneticPr fontId="8"/>
   </si>
@@ -3418,6 +2958,859 @@
     </rPh>
     <rPh sb="194" eb="196">
       <t/>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>active | inactive | resolved</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>アクティブ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>非アクティブ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>解決済み</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>のいずれか（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>ValueSet http://hl7.org/fhir/ValueSet/allergyintolerance-clinical</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>より選択することが必須）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>。「解決済み」は「非アクティブ」に含まれる。</t>
+    </r>
+    <rPh sb="138" eb="140">
+      <t xml:space="preserve">カイケツ </t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t xml:space="preserve">ズミ </t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>🧨</t>
+    </rPh>
+    <rPh sb="153" eb="154">
+      <t xml:space="preserve">フクマレル </t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>”Active"</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>コードだけでは記述できない情報がある場合にコードと併用してもよい。値が使用されない可能性はある。</t>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">キジュツ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ジョウホウ </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">バアイ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">ヘイヨウ </t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t xml:space="preserve">アタイオ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">シヨウ </t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t xml:space="preserve">カノウセイ </t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>臨床的状態のステータス。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>コードで記述は必須</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。ただし、verificationStatus要素が'entered-in-error'であれば、本要素は存在してはならない。それ以外では必須。</t>
+    </r>
+    <rPh sb="74" eb="75">
+      <t xml:space="preserve">ホン </t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t xml:space="preserve">ヨウソ </t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t xml:space="preserve">ソンザイ </t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t xml:space="preserve">ヒッス </t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>入力された臨床的状態に対する検証状況を示す。確からしさと考えられる。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>コード化記述が必須</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。clinicalStatusとの制約条件を参照のこと。</t>
+    </r>
+    <rPh sb="37" eb="38">
+      <t xml:space="preserve">カ </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">キジュツ </t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t xml:space="preserve">ヒッス </t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t xml:space="preserve">セイヤク </t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t xml:space="preserve">ジョウケン </t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t xml:space="preserve">サンショウ </t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>コードで記述が必須で、少なくともひとつの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>system</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>値は固定値。</t>
+    </r>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ヒッス </t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t xml:space="preserve">スクナクトモ </t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>Unconfirmed | Confirmed | Refuted | Entered in Error</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　のいずれかの文字列。</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>"Unconfirmed"</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>”Unconfirmed"</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>unconfirmed | confirmed | refuted | entered-in-error</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>未確認</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>確認済み</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>否定された</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>入力エラー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　のいずれか（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>ValueSet http://hl7.org/fhir/ValueSet/allergyintolerance-verification</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>より選択することが必須）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">特定された原因物質のカテゴリ。記述を可能な限り推奨する。コード表："http://hl7.org/fhir/allergy-intolerance-category"　から　food | medication | environment | biologic　（食物、医薬品、環境、バイオロジー物質）のいずれかを選択する。電子カルテシステムで、これらのカテゴリーが区別されて登録されている場合には可能な限りコードを設定すること。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>電子カルテ情報共有サービスでは、薬剤禁忌情報として本リソース種別を使用する場合には、必ず本要素は"medication"として存在しなければならず、criticality要素は"high"を設定しなければならない。これ以外の場合には、本リソースの情報はや薬剤禁忌以外のアレルギー情報として取り扱われる。</t>
+    </r>
+    <rPh sb="147" eb="149">
+      <t xml:space="preserve">ブッシツ </t>
+    </rPh>
+    <rPh sb="156" eb="158">
+      <t xml:space="preserve">センタク </t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t xml:space="preserve">デンシ </t>
+    </rPh>
+    <rPh sb="182" eb="184">
+      <t xml:space="preserve">クベツ </t>
+    </rPh>
+    <rPh sb="187" eb="189">
+      <t xml:space="preserve">トウロク </t>
+    </rPh>
+    <rPh sb="194" eb="196">
+      <t xml:space="preserve">バアイ </t>
+    </rPh>
+    <rPh sb="198" eb="200">
+      <t xml:space="preserve">カノウ </t>
+    </rPh>
+    <rPh sb="201" eb="202">
+      <t xml:space="preserve">カギリ </t>
+    </rPh>
+    <rPh sb="207" eb="209">
+      <t xml:space="preserve">セッテイ </t>
+    </rPh>
+    <rPh sb="231" eb="233">
+      <t xml:space="preserve">ヤクザイ </t>
+    </rPh>
+    <rPh sb="233" eb="235">
+      <t xml:space="preserve">キンキ </t>
+    </rPh>
+    <rPh sb="235" eb="237">
+      <t xml:space="preserve">ジョウホウ </t>
+    </rPh>
+    <rPh sb="240" eb="241">
+      <t xml:space="preserve">ホン </t>
+    </rPh>
+    <rPh sb="245" eb="247">
+      <t xml:space="preserve">シュベツ </t>
+    </rPh>
+    <rPh sb="248" eb="250">
+      <t xml:space="preserve">シヨウ </t>
+    </rPh>
+    <rPh sb="252" eb="254">
+      <t xml:space="preserve">バアイ </t>
+    </rPh>
+    <rPh sb="257" eb="258">
+      <t xml:space="preserve">カナラズ </t>
+    </rPh>
+    <rPh sb="259" eb="260">
+      <t xml:space="preserve">ホン </t>
+    </rPh>
+    <rPh sb="260" eb="262">
+      <t xml:space="preserve">ヨウソ </t>
+    </rPh>
+    <rPh sb="278" eb="280">
+      <t xml:space="preserve">ソンザイ </t>
+    </rPh>
+    <rPh sb="300" eb="302">
+      <t xml:space="preserve">ヨウソ </t>
+    </rPh>
+    <rPh sb="310" eb="312">
+      <t xml:space="preserve">セッテイ </t>
+    </rPh>
+    <rPh sb="327" eb="329">
+      <t xml:space="preserve">バアイ </t>
+    </rPh>
+    <rPh sb="332" eb="333">
+      <t xml:space="preserve">ホン </t>
+    </rPh>
+    <rPh sb="338" eb="340">
+      <t xml:space="preserve">ジョウホウ </t>
+    </rPh>
+    <rPh sb="344" eb="346">
+      <t xml:space="preserve">キンキ </t>
+    </rPh>
+    <rPh sb="346" eb="348">
+      <t xml:space="preserve">イガイ </t>
+    </rPh>
+    <rPh sb="354" eb="356">
+      <t xml:space="preserve">ジョウホウ </t>
+    </rPh>
+    <rPh sb="359" eb="360">
+      <t xml:space="preserve">トリアツカワレル </t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>使用するコード表（推奨）：ValueSet http://jpfhir.jp/fhir/core/ValueSet/JP_AllergyIntolerance_VS
+CodeSystem は、category要素に対応して、http://jpfhir.jp/fhir/core/CodeSystem/JP_JfagyFoodAllergen_CS
+http://jpfhir.jp/fhir/core/CodeSystem/JP_JfagyNonFoodNonMedicationAllergen_CS
+http://jpfhir.jp/fhir/core/CodeSystem/JP_JfagyMedicationAllergen_CS　の3つのいずれかから選択することが推奨されている。</t>
+    <rPh sb="104" eb="106">
+      <t xml:space="preserve">ヨウソ </t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>jp-core</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>で定める</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>allergy-substance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>コード表のコードを使用を推奨する。コード化できない場合には、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">code.text </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>のみで記述する。コード化の有無にかかわらず、電子カルテシステム等で登録され表示されている文字列を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>code.textに必ず設定すること</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <rPh sb="81" eb="83">
+      <t xml:space="preserve">ウム </t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t xml:space="preserve">デンシ </t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t xml:space="preserve">トウ </t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t xml:space="preserve">トウロク </t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t xml:space="preserve">ヒョウジ </t>
+    </rPh>
+    <rPh sb="112" eb="115">
+      <t xml:space="preserve">モジレツ </t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t xml:space="preserve">カナラズ </t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t xml:space="preserve">セッテイ </t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>{
+  "reference":  "#patient203987"
+}</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>P_Patient</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>タイプのリソース（Patient.idの値が"#patient203987"と仮定）が本リソースの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>contained</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>リソースとして埋め込み記述されている場合に、その</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>contained</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>リソースの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>値(Patient.id)を記述する例。</t>
+    </r>
+    <rPh sb="29" eb="30">
+      <t xml:space="preserve">アタイ </t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t xml:space="preserve">ホン </t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t xml:space="preserve">ウメコミ </t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t xml:space="preserve">カテイ </t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t xml:space="preserve">キジュツ </t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t xml:space="preserve">バアイ </t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t xml:space="preserve"> _x0000_</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>_x001D__x0001_</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t/>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t xml:space="preserve">レイ </t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+    "type": "Patient",  
+     "identifier":{
+         "system": "http:/jpfhir.jp/fhir/clins/Idsystem/JP_Insurance_member/00012345",
+          "value": "00012345:あいう:１８７:05"
+       }
+}
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>電子カルテ共有サービスにおける</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>情報のひとつして本リソースが記述される場合に、保険個人識別子(例では、保険者等番号＝12345、被保険者証等の記号＝あいう、被保険者証等の番号＝１８７、枝番＝05 の患者)を記述した外部にある患者リソースを参照する場合の例。</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">デンシ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">キョウユウ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ジョウホウ </t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t xml:space="preserve">ホン </t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">キジュツ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">バアイ </t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t xml:space="preserve">レイ </t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t xml:space="preserve">キジュツ </t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t xml:space="preserve">カンジャ </t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t xml:space="preserve">サンショウ </t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t xml:space="preserve">バアイ </t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t xml:space="preserve">カンジャ </t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t xml:space="preserve">ガイブ </t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -3426,7 +3819,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3516,8 +3909,23 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3532,13 +3940,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3585,7 +3999,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3630,6 +4044,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3945,10 +4368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31E2806-F82F-FF4E-B415-DA2D51EB6EA0}">
-  <dimension ref="A1:N119"/>
+  <dimension ref="A1:N120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3960,7 +4383,7 @@
     <col min="8" max="8" width="5.5703125" style="3" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" style="3"/>
     <col min="10" max="10" width="21.28515625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="21.28515625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="68.28515625" style="6" customWidth="1"/>
     <col min="12" max="12" width="46.85546875" style="3" customWidth="1"/>
     <col min="13" max="13" width="8.140625" style="3" customWidth="1"/>
     <col min="14" max="14" width="46.85546875" style="3" customWidth="1"/>
@@ -3981,13 +4404,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -3996,19 +4419,19 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -4024,8 +4447,8 @@
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="13" t="s">
-        <v>178</v>
+      <c r="H2" s="15" t="s">
+        <v>176</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
@@ -4052,13 +4475,13 @@
         <v>meta</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>178</v>
+        <v>186</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>176</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>12</v>
@@ -4084,12 +4507,12 @@
         <v>meta.lastUpdated</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H4" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -4097,14 +4520,14 @@
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="56">
@@ -4112,7 +4535,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -4121,12 +4544,12 @@
         <v>meta.profile[+}</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H5" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="2" t="s">
@@ -4137,11 +4560,11 @@
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -4149,7 +4572,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -4158,16 +4581,16 @@
         <v>meta.tag[*]</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>206</v>
+        <v>203</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>203</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -4182,10 +4605,10 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="str">
@@ -4193,23 +4616,23 @@
         <v>meta.tag[+].system</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>178</v>
+        <v>186</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>176</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M7" s="5">
         <v>1</v>
@@ -4221,10 +4644,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="str">
@@ -4232,23 +4655,23 @@
         <v>meta.tag[=].code</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>178</v>
+        <v>186</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>176</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M8" s="5">
         <v>1</v>
@@ -4260,10 +4683,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="str">
@@ -4271,23 +4694,23 @@
         <v>meta.tag[+].system</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>178</v>
+        <v>186</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>176</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="12" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M9" s="5">
         <v>1</v>
@@ -4299,10 +4722,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="str">
@@ -4310,23 +4733,23 @@
         <v>meta.tag[=].code</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>178</v>
+        <v>186</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>176</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M10" s="5">
         <v>1</v>
@@ -4345,13 +4768,13 @@
         <v>text</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>178</v>
+        <v>186</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>176</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>20</v>
@@ -4359,13 +4782,13 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="5" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="M11" s="5">
         <v>1</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="30">
@@ -4382,12 +4805,12 @@
         <v>text.status</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H12" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="H12" s="15" t="s">
         <v>11</v>
       </c>
       <c r="I12" s="2" t="s">
@@ -4398,7 +4821,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5" t="s">
@@ -4419,12 +4842,12 @@
         <v>text.div</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H13" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>11</v>
       </c>
       <c r="I13" s="2" t="s">
@@ -4432,19 +4855,19 @@
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -4454,13 +4877,13 @@
         <v>contained[*]</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -4473,7 +4896,7 @@
     </row>
     <row r="15" spans="1:14" ht="56">
       <c r="A15" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -4483,21 +4906,21 @@
         <v>contained[+]</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>193</v>
+        <v>203</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>191</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M15" s="5">
         <v>1</v>
@@ -4506,7 +4929,7 @@
     </row>
     <row r="16" spans="1:14" ht="56">
       <c r="A16" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -4516,21 +4939,21 @@
         <v>contained[+]</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H16" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M16" s="5">
         <v>1</v>
@@ -4539,7 +4962,7 @@
     </row>
     <row r="17" spans="1:14" ht="70">
       <c r="A17" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -4549,21 +4972,21 @@
         <v>contained[+]</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>193</v>
+        <v>203</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>191</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M17" s="5">
         <v>1</v>
@@ -4572,7 +4995,7 @@
     </row>
     <row r="18" spans="1:14" s="6" customFormat="1" ht="75">
       <c r="A18" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4582,13 +5005,13 @@
         <v>identifier[*]</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>200</v>
+        <v>203</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>27</v>
@@ -4596,7 +5019,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5" t="s">
@@ -4605,7 +5028,7 @@
     </row>
     <row r="19" spans="1:14" ht="28">
       <c r="A19" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>29</v>
@@ -4617,17 +5040,17 @@
         <v>identifier[+].system</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H19" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H19" s="15" t="s">
         <v>11</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -4636,7 +5059,7 @@
     </row>
     <row r="20" spans="1:14" ht="30">
       <c r="A20" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>30</v>
@@ -4648,12 +5071,12 @@
         <v>identifier[+].value</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H20" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H20" s="15" t="s">
         <v>11</v>
       </c>
       <c r="I20" s="2"/>
@@ -4661,16 +5084,16 @@
         <v>31</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="75">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="82" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4680,13 +5103,13 @@
         <v>clinicalStatus</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>186</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>32</v>
@@ -4694,7 +5117,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M21" s="5">
         <v>1</v>
@@ -4705,10 +5128,10 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -4717,16 +5140,16 @@
         <v>clinicalStatus.coding[*]</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -4740,13 +5163,13 @@
     </row>
     <row r="23" spans="1:14" ht="42">
       <c r="A23" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="C23" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="str">
@@ -4754,23 +5177,23 @@
         <v>clinicalStatus.coding[+].system</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>178</v>
+        <v>186</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>176</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K23" s="2"/>
-      <c r="L23" s="2" t="s">
-        <v>240</v>
+      <c r="L23" s="16" t="s">
+        <v>250</v>
       </c>
       <c r="M23" s="2">
         <v>1</v>
@@ -4779,13 +5202,13 @@
     </row>
     <row r="24" spans="1:14" ht="58" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="str">
@@ -4793,23 +5216,23 @@
         <v>clinicalStatus.coding[=].code</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>178</v>
+        <v>186</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>176</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="M24" s="2">
         <v>1</v>
@@ -4818,13 +5241,13 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="str">
@@ -4832,21 +5255,23 @@
         <v>clinicalStatus.coding[=].dispkay</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>178</v>
+        <v>186</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>176</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="K25" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="L25" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="M25" s="2">
         <v>1</v>
@@ -4855,10 +5280,10 @@
     </row>
     <row r="26" spans="1:14" ht="30">
       <c r="A26" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -4867,21 +5292,21 @@
         <v>clinicalStatus.text</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>186</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="8"/>
       <c r="L26" s="5" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5" t="s">
@@ -4890,7 +5315,7 @@
     </row>
     <row r="27" spans="1:14" ht="45">
       <c r="A27" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -4900,32 +5325,32 @@
         <v>verificationStatus</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>176</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="28">
       <c r="A28" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -4934,33 +5359,33 @@
         <v>verificationStatus.coding[*]</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="3"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="42">
       <c r="A29" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="str">
@@ -4968,36 +5393,36 @@
         <v>verificationStatus.coding[+].system</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>178</v>
+        <v>186</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>176</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>36</v>
       </c>
       <c r="K29" s="2"/>
-      <c r="L29" s="2" t="s">
-        <v>243</v>
+      <c r="L29" s="16" t="s">
+        <v>250</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
     <row r="30" spans="1:14" ht="60">
       <c r="A30" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="str">
@@ -5005,36 +5430,36 @@
         <v>verificationStatus.coding[=].code</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>178</v>
+        <v>186</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>176</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2" t="s">
-        <v>37</v>
+        <v>252</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>202</v>
+        <v>254</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" ht="28">
+    <row r="31" spans="1:14" ht="30">
       <c r="A31" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="str">
@@ -5042,31 +5467,33 @@
         <v>verificationStatus.coding[=].dispkay</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>178</v>
+        <v>186</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>176</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
+      <c r="K31" s="2" t="s">
+        <v>253</v>
+      </c>
       <c r="L31" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
     <row r="32" spans="1:14" ht="28">
       <c r="A32" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -5075,28 +5502,28 @@
         <v>verificationStatus.text</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
     <row r="33" spans="1:14" ht="86" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -5119,19 +5546,19 @@
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="M33" s="5"/>
       <c r="N33" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="165">
+      <c r="A34" s="11" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="135">
-      <c r="A34" s="11" t="s">
-        <v>42</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -5146,50 +5573,52 @@
       <c r="G34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="13" t="s">
         <v>19</v>
       </c>
       <c r="I34" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J34" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="K34" s="2"/>
+      <c r="K34" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="L34" s="5" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="M34" s="5"/>
       <c r="N34" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="90">
       <c r="A35" s="2" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2" t="s">
-        <v>15</v>
+      <c r="F35" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>186</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K35" s="2"/>
+      <c r="K35" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="L35" s="5" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="M35" s="5"/>
       <c r="N35" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="28">
@@ -5200,153 +5629,227 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="9" t="s">
+      <c r="F36" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H36" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I36" s="9" t="s">
+      <c r="I36" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>254</v>
-      </c>
+      <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M36" s="5"/>
       <c r="N36" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="45">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="60">
+      <c r="A37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>228</v>
+      </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="E37" s="2" t="str">
+        <f t="shared" ref="E37:E41" si="3">A37&amp;(IF(NOT(ISBLANK(B37)),"."&amp;B37,""))&amp;(IF(NOT(ISBLANK(C37)),"."&amp;C37,""))&amp;(IF(NOT(ISBLANK(D37)),"."&amp;D37,""))</f>
+        <v>code.coding[*]</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2" t="s">
-        <v>50</v>
+        <v>257</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="161" customHeight="1">
+      <c r="A38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K38" s="2"/>
+      <c r="E38" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>code.coding[+].system</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="I38" s="2"/>
+      <c r="K38" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="L38" s="5" t="s">
-        <v>51</v>
+        <v>256</v>
       </c>
       <c r="M38" s="5"/>
       <c r="N38" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="30">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="A39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="E39" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>code.coding[=].code</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="30">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="A40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="E40" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>code.coding[=].dispkay</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="29">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
+      <c r="A41" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
+      <c r="E41" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>code.text</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="I41" s="2"/>
       <c r="J41" s="7"/>
       <c r="K41" s="8"/>
-      <c r="L41" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="28">
+      <c r="A42" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="8"/>
+      <c r="H42" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K42" s="2"/>
       <c r="L42" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="28">
+        <v>57</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+    </row>
+    <row r="43" spans="1:14" ht="84">
       <c r="A43" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -5354,76 +5857,70 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K43" s="2"/>
-      <c r="L43" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="30">
-      <c r="A44" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+    </row>
+    <row r="44" spans="1:14" ht="124" customHeight="1">
+      <c r="A44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K44" s="2"/>
-      <c r="L44" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="A45" s="9"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="L44" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+    </row>
+    <row r="45" spans="1:14" ht="30">
+      <c r="A45" s="9" t="s">
+        <v>188</v>
+      </c>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
+      <c r="H45" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="K45" s="2"/>
-      <c r="L45" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2" t="s">
-        <v>62</v>
+      <c r="L45" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -5431,21 +5928,21 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="9"/>
-      <c r="I46" s="10" t="s">
-        <v>64</v>
-      </c>
+      <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="2"/>
-      <c r="L46" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="60">
-      <c r="A47" s="9"/>
+      <c r="L46" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -5453,61 +5950,63 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="9"/>
-      <c r="I47" s="10"/>
+      <c r="I47" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="J47" s="9"/>
       <c r="K47" s="2"/>
-      <c r="L47" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+      <c r="L47" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="60">
       <c r="A48" s="9"/>
-      <c r="B48" s="9" t="s">
-        <v>67</v>
-      </c>
+      <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>68</v>
-      </c>
+      <c r="H48" s="9"/>
+      <c r="I48" s="10"/>
       <c r="J48" s="9"/>
       <c r="K48" s="2"/>
-      <c r="L48" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5" t="s">
-        <v>69</v>
+      <c r="L48" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
+      <c r="B49" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
+      <c r="H49" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="J49" s="9"/>
       <c r="K49" s="2"/>
       <c r="L49" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M49" s="5"/>
       <c r="N49" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -5523,112 +6022,112 @@
       <c r="J50" s="9"/>
       <c r="K50" s="2"/>
       <c r="L50" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M50" s="5"/>
       <c r="N50" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-      <c r="H51" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J51" s="2"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
       <c r="K51" s="2"/>
       <c r="L51" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="M51" s="5"/>
       <c r="N51" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B52" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
+      <c r="H52" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="I52" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>76</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M52" s="5"/>
       <c r="N52" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D53" s="9"/>
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J53" s="9" t="s">
-        <v>79</v>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="K53" s="2"/>
       <c r="L53" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M53" s="5"/>
       <c r="N53" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
+      <c r="C54" s="9" t="s">
+        <v>76</v>
+      </c>
       <c r="D54" s="9"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
+      <c r="I54" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="K54" s="2"/>
       <c r="L54" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M54" s="5"/>
       <c r="N54" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="30">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -5641,44 +6140,38 @@
       <c r="J55" s="9"/>
       <c r="K55" s="2"/>
       <c r="L55" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M55" s="5"/>
       <c r="N55" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D56" s="2"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="30">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
       <c r="K56" s="2"/>
       <c r="L56" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="M56" s="5"/>
       <c r="N56" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -5686,64 +6179,70 @@
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M57" s="5"/>
       <c r="N57" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D58" s="9"/>
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J58" s="9" t="s">
-        <v>90</v>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M58" s="5"/>
       <c r="N58" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
+      <c r="C59" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="D59" s="9"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
+      <c r="I59" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="K59" s="2"/>
       <c r="L59" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M59" s="5"/>
       <c r="N59" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -5758,12 +6257,12 @@
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="2"/>
-      <c r="L60" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2" t="s">
-        <v>93</v>
+      <c r="L60" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -5779,11 +6278,11 @@
       <c r="J61" s="9"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -5799,11 +6298,11 @@
       <c r="J62" s="9"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -5819,11 +6318,11 @@
       <c r="J63" s="9"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -5839,11 +6338,11 @@
       <c r="J64" s="9"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -5859,45 +6358,39 @@
       <c r="J65" s="9"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:14">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="J66" s="2"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
       <c r="K66" s="2"/>
-      <c r="L66" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5" t="s">
-        <v>101</v>
+      <c r="L66" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="B67" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -5906,23 +6399,23 @@
         <v>19</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
       <c r="L67" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="M67" s="5"/>
       <c r="N67" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -5932,24 +6425,24 @@
         <v>19</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="M68" s="5"/>
       <c r="N68" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2"/>
-      <c r="B69" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -5958,24 +6451,24 @@
         <v>19</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="M69" s="5"/>
       <c r="N69" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="B70" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -5983,63 +6476,63 @@
       <c r="H70" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I70" s="2"/>
+      <c r="I70" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+      <c r="L70" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="C71" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="H71" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
       <c r="K71" s="2"/>
-      <c r="L71" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5" t="s">
-        <v>77</v>
-      </c>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K72" s="2"/>
       <c r="L72" s="5" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="M72" s="5"/>
       <c r="N72" s="5" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -6047,71 +6540,77 @@
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K73" s="2"/>
       <c r="L73" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M73" s="5"/>
       <c r="N73" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="9"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9" t="s">
-        <v>22</v>
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J74" s="9" t="s">
-        <v>90</v>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M74" s="5"/>
       <c r="N74" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
+      <c r="D75" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="9"/>
+      <c r="I75" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="K75" s="2"/>
       <c r="L75" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M75" s="5"/>
       <c r="N75" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -6126,84 +6625,78 @@
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="2"/>
-      <c r="L76" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2" t="s">
-        <v>98</v>
+      <c r="L76" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:14">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D77" s="2"/>
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
-      <c r="H77" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
       <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
+      <c r="L77" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
+      <c r="N77" s="2" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="C78" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="H78" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
       <c r="K78" s="2"/>
-      <c r="L78" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="M78" s="5"/>
-      <c r="N78" s="5" t="s">
-        <v>77</v>
-      </c>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="K79" s="2"/>
       <c r="L79" s="5" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="M79" s="5"/>
       <c r="N79" s="5" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -6211,71 +6704,77 @@
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K80" s="2"/>
       <c r="L80" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M80" s="5"/>
       <c r="N80" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="1:14">
-      <c r="A81" s="9"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9" t="s">
-        <v>22</v>
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J81" s="9" t="s">
-        <v>90</v>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M81" s="5"/>
       <c r="N81" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
+      <c r="D82" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
-      <c r="J82" s="9"/>
+      <c r="I82" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J82" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="K82" s="2"/>
       <c r="L82" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M82" s="5"/>
       <c r="N82" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -6290,47 +6789,39 @@
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="2"/>
-      <c r="L83" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2" t="s">
-        <v>98</v>
+      <c r="L83" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:14">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
+      <c r="A84" s="9"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
-      <c r="H84" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
       <c r="K84" s="2"/>
-      <c r="L84" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="M84" s="5"/>
-      <c r="N84" s="5" t="s">
-        <v>115</v>
+      <c r="L84" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:14">
-      <c r="A85" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B85" s="2"/>
+      <c r="A85" s="2"/>
+      <c r="B85" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -6340,21 +6831,23 @@
         <v>19</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J85" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="K85" s="2"/>
       <c r="L85" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M85" s="5"/>
       <c r="N85" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" ht="70">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -6366,21 +6859,21 @@
         <v>19</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="M86" s="5"/>
       <c r="N86" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="70">
       <c r="A87" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -6392,21 +6885,21 @@
         <v>19</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
       <c r="L87" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M87" s="5"/>
       <c r="N87" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="70">
       <c r="A88" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -6418,21 +6911,21 @@
         <v>19</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="M88" s="5"/>
       <c r="N88" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -6441,71 +6934,69 @@
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I89" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
       <c r="L89" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M89" s="5"/>
       <c r="N89" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="90" spans="1:14">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2" t="s">
-        <v>127</v>
-      </c>
+      <c r="A90" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
+      <c r="H90" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
+      <c r="L90" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="B91" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
-      <c r="H91" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J91" s="2" t="s">
-        <v>129</v>
-      </c>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
       <c r="K91" s="2"/>
-      <c r="L91" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="M91" s="5"/>
-      <c r="N91" s="5" t="s">
-        <v>130</v>
-      </c>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2"/>
-      <c r="B92" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
@@ -6514,22 +7005,24 @@
         <v>19</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J92" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="K92" s="2"/>
       <c r="L92" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M92" s="5"/>
       <c r="N92" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" ht="30">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" s="2"/>
       <c r="B93" s="2" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -6537,98 +7030,102 @@
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
       <c r="L93" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M93" s="5"/>
       <c r="N93" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" ht="28">
-      <c r="A94" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B94" s="2"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="30">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
       <c r="L94" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="M94" s="5"/>
       <c r="N94" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" ht="42">
-      <c r="A95" s="9"/>
-      <c r="B95" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="28">
+      <c r="A95" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
-      <c r="H95" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I95" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J95" s="2" t="s">
-        <v>139</v>
-      </c>
+      <c r="H95" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J95" s="2"/>
       <c r="K95" s="2"/>
       <c r="L95" s="5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="M95" s="5"/>
       <c r="N95" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="42">
       <c r="A96" s="9"/>
-      <c r="B96" s="9"/>
+      <c r="B96" s="9" t="s">
+        <v>136</v>
+      </c>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
-      <c r="H96" s="9"/>
-      <c r="I96" s="9"/>
+      <c r="H96" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I96" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="J96" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K96" s="2"/>
+      <c r="L96" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="K96" s="2"/>
-      <c r="L96" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" ht="30">
+      <c r="M96" s="5"/>
+      <c r="N96" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -6639,18 +7136,18 @@
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
       <c r="J97" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="K97" s="2"/>
-      <c r="L97" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="M97" s="5"/>
-      <c r="N97" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" ht="90">
+      <c r="M97" s="2"/>
+      <c r="N97" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="30">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
@@ -6660,17 +7157,19 @@
       <c r="G98" s="2"/>
       <c r="H98" s="9"/>
       <c r="I98" s="9"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="8"/>
+      <c r="J98" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K98" s="2"/>
       <c r="L98" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M98" s="5"/>
       <c r="N98" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" ht="60">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="90">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -6683,64 +7182,62 @@
       <c r="J99" s="7"/>
       <c r="K99" s="8"/>
       <c r="L99" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M99" s="5"/>
       <c r="N99" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" ht="28">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="60">
       <c r="A100" s="9"/>
-      <c r="B100" s="9" t="s">
-        <v>147</v>
-      </c>
+      <c r="B100" s="9"/>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
-      <c r="H100" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="I100" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J100" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="K100" s="2"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="8"/>
       <c r="L100" s="5" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="M100" s="5"/>
       <c r="N100" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" ht="45">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="28">
       <c r="A101" s="9"/>
-      <c r="B101" s="9"/>
+      <c r="B101" s="9" t="s">
+        <v>145</v>
+      </c>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
-      <c r="H101" s="9"/>
-      <c r="I101" s="9"/>
+      <c r="H101" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="I101" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="J101" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K101" s="2"/>
-      <c r="L101" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14">
+      <c r="L101" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="M101" s="5"/>
+      <c r="N101" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="45">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
@@ -6751,12 +7248,16 @@
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
       <c r="J102" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K102" s="2"/>
-      <c r="L102" s="7"/>
-      <c r="M102" s="7"/>
-      <c r="N102" s="7"/>
+      <c r="L102" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="9"/>
@@ -6769,45 +7270,35 @@
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
       <c r="J103" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K103" s="2"/>
       <c r="L103" s="7"/>
       <c r="M103" s="7"/>
       <c r="N103" s="7"/>
     </row>
-    <row r="104" spans="1:14" ht="45">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
+    <row r="104" spans="1:14">
+      <c r="A104" s="9"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
-      <c r="H104" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
       <c r="J104" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="K104" s="2"/>
-      <c r="L104" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="M104" s="5"/>
-      <c r="N104" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14">
+      <c r="L104" s="7"/>
+      <c r="M104" s="7"/>
+      <c r="N104" s="7"/>
+    </row>
+    <row r="105" spans="1:14" ht="45">
       <c r="A105" s="2"/>
       <c r="B105" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -6818,66 +7309,74 @@
         <v>19</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K105" s="2"/>
       <c r="L105" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M105" s="5"/>
       <c r="N105" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106" spans="1:14">
-      <c r="A106" s="9"/>
-      <c r="B106" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
+      <c r="A106" s="2"/>
+      <c r="B106" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
-      <c r="H106" s="9" t="s">
+      <c r="H106" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I106" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J106" s="9" t="s">
-        <v>162</v>
+      <c r="I106" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="M106" s="5"/>
       <c r="N106" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="9"/>
-      <c r="B107" s="9"/>
+      <c r="B107" s="9" t="s">
+        <v>159</v>
+      </c>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
-      <c r="H107" s="9"/>
-      <c r="I107" s="9"/>
-      <c r="J107" s="9"/>
+      <c r="H107" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I107" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J107" s="9" t="s">
+        <v>160</v>
+      </c>
       <c r="K107" s="2"/>
       <c r="L107" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M107" s="5"/>
       <c r="N107" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -6892,12 +7391,12 @@
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="2"/>
-      <c r="L108" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2" t="s">
-        <v>165</v>
+      <c r="L108" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M108" s="5"/>
+      <c r="N108" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -6913,11 +7412,11 @@
       <c r="J109" s="9"/>
       <c r="K109" s="2"/>
       <c r="L109" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -6932,65 +7431,63 @@
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="2"/>
-      <c r="L110" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="M110" s="5"/>
-      <c r="N110" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" ht="30">
+      <c r="L110" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
       <c r="A111" s="9"/>
-      <c r="B111" s="9" t="s">
-        <v>168</v>
-      </c>
+      <c r="B111" s="9"/>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
-      <c r="H111" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I111" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J111" s="2" t="s">
-        <v>169</v>
-      </c>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
       <c r="K111" s="2"/>
       <c r="L111" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="M111" s="5"/>
       <c r="N111" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="30">
       <c r="A112" s="9"/>
-      <c r="B112" s="9"/>
+      <c r="B112" s="9" t="s">
+        <v>166</v>
+      </c>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
-      <c r="H112" s="9"/>
-      <c r="I112" s="9"/>
+      <c r="H112" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I112" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="J112" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K112" s="2"/>
-      <c r="L112" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="M112" s="2"/>
-      <c r="N112" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14">
+      <c r="L112" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="M112" s="5"/>
+      <c r="N112" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="30">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -7001,12 +7498,16 @@
       <c r="H113" s="9"/>
       <c r="I113" s="9"/>
       <c r="J113" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K113" s="2"/>
-      <c r="L113" s="7"/>
-      <c r="M113" s="7"/>
-      <c r="N113" s="7"/>
+      <c r="L113" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="9"/>
@@ -7019,7 +7520,7 @@
       <c r="H114" s="9"/>
       <c r="I114" s="9"/>
       <c r="J114" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K114" s="2"/>
       <c r="L114" s="7"/>
@@ -7027,88 +7528,78 @@
       <c r="N114" s="7"/>
     </row>
     <row r="115" spans="1:14">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
+      <c r="A115" s="9"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
-      <c r="H115" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I115" s="2"/>
-      <c r="J115" s="2"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="K115" s="2"/>
-      <c r="L115" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="M115" s="5"/>
-      <c r="N115" s="5" t="s">
-        <v>175</v>
-      </c>
+      <c r="L115" s="7"/>
+      <c r="M115" s="7"/>
+      <c r="N115" s="7"/>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2" t="s">
-        <v>127</v>
-      </c>
+      <c r="B116" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
       <c r="H116" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
       <c r="L116" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M116" s="5"/>
       <c r="N116" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="C117" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
       <c r="H117" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I117" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J117" s="2" t="s">
-        <v>177</v>
-      </c>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
       <c r="K117" s="2"/>
       <c r="L117" s="5" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="M117" s="5"/>
       <c r="N117" s="5" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
-      <c r="C118" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
@@ -7116,122 +7607,148 @@
         <v>19</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J118" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="K118" s="2"/>
       <c r="L118" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M118" s="5"/>
       <c r="N118" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" ht="30">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
       <c r="H119" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
       <c r="L119" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M119" s="5"/>
       <c r="N119" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="30">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="M120" s="5"/>
+      <c r="N120" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="76">
-    <mergeCell ref="J106:J110"/>
-    <mergeCell ref="A111:A114"/>
-    <mergeCell ref="B111:B114"/>
-    <mergeCell ref="C111:C114"/>
-    <mergeCell ref="D111:D114"/>
-    <mergeCell ref="H111:H114"/>
-    <mergeCell ref="I111:I114"/>
-    <mergeCell ref="A106:A110"/>
-    <mergeCell ref="B106:B110"/>
-    <mergeCell ref="C106:C110"/>
-    <mergeCell ref="D106:D110"/>
-    <mergeCell ref="H106:H110"/>
-    <mergeCell ref="I106:I110"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="B100:B103"/>
-    <mergeCell ref="C100:C103"/>
-    <mergeCell ref="D100:D103"/>
-    <mergeCell ref="H100:H103"/>
-    <mergeCell ref="I100:I103"/>
-    <mergeCell ref="J81:J83"/>
-    <mergeCell ref="A95:A99"/>
-    <mergeCell ref="B95:B99"/>
-    <mergeCell ref="C95:C99"/>
-    <mergeCell ref="D95:D99"/>
-    <mergeCell ref="H95:H99"/>
-    <mergeCell ref="I95:I99"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="H81:H83"/>
-    <mergeCell ref="I81:I83"/>
-    <mergeCell ref="J58:J65"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="H74:H76"/>
-    <mergeCell ref="I74:I76"/>
-    <mergeCell ref="J74:J76"/>
-    <mergeCell ref="A58:A65"/>
-    <mergeCell ref="B58:B65"/>
-    <mergeCell ref="C58:C65"/>
-    <mergeCell ref="D58:D65"/>
-    <mergeCell ref="H58:H65"/>
-    <mergeCell ref="I58:I65"/>
-    <mergeCell ref="J48:J50"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="I53:I55"/>
-    <mergeCell ref="J53:J55"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="H36:H42"/>
-    <mergeCell ref="I36:I42"/>
+  <mergeCells count="74">
+    <mergeCell ref="J107:J111"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="C112:C115"/>
+    <mergeCell ref="D112:D115"/>
+    <mergeCell ref="H112:H115"/>
+    <mergeCell ref="I112:I115"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="B107:B111"/>
+    <mergeCell ref="C107:C111"/>
+    <mergeCell ref="D107:D111"/>
+    <mergeCell ref="H107:H111"/>
+    <mergeCell ref="I107:I111"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="D101:D104"/>
+    <mergeCell ref="H101:H104"/>
+    <mergeCell ref="I101:I104"/>
+    <mergeCell ref="J82:J84"/>
+    <mergeCell ref="A96:A100"/>
+    <mergeCell ref="B96:B100"/>
+    <mergeCell ref="C96:C100"/>
+    <mergeCell ref="D96:D100"/>
+    <mergeCell ref="H96:H100"/>
+    <mergeCell ref="I96:I100"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="H82:H84"/>
+    <mergeCell ref="I82:I84"/>
+    <mergeCell ref="J59:J66"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="H75:H77"/>
+    <mergeCell ref="I75:I77"/>
+    <mergeCell ref="J75:J77"/>
+    <mergeCell ref="A59:A66"/>
+    <mergeCell ref="B59:B66"/>
+    <mergeCell ref="C59:C66"/>
+    <mergeCell ref="D59:D66"/>
+    <mergeCell ref="H59:H66"/>
+    <mergeCell ref="I59:I66"/>
+    <mergeCell ref="J49:J51"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="I54:I56"/>
+    <mergeCell ref="J54:J56"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="H49:H51"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
